--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
   <si>
     <t>SheetName</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>MoveSpeed</t>
+  </si>
+  <si>
+    <t>IsConstant</t>
   </si>
   <si>
     <t>Physical</t>
@@ -365,15 +368,30 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -394,18 +412,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -416,11 +427,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -440,22 +450,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,6 +464,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -477,16 +488,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,14 +513,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -517,7 +520,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -544,37 +547,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,19 +637,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -610,121 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -756,8 +759,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -794,8 +797,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -825,17 +830,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -850,6 +844,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -858,10 +861,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,133 +873,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,7 +1453,7 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1530,7 +1533,7 @@
   <sheetPr/>
   <dimension ref="A1:AF3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
@@ -1654,13 +1657,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
@@ -1668,10 +1671,11 @@
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="25" width="9" style="2"/>
+    <col min="9" max="9" width="16.625" style="3" customWidth="1"/>
+    <col min="10" max="25" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1695,6 +1699,9 @@
       </c>
       <c r="H1" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1904,10 +1911,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
@@ -1924,11 +1931,11 @@
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
     <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="10.125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="10.625" style="1" customWidth="1"/>
-    <col min="14" max="34" width="9" style="2"/>
+    <col min="13" max="14" width="10.625" style="1" customWidth="1"/>
+    <col min="15" max="34" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
         <v>12</v>
       </c>
@@ -1968,40 +1975,43 @@
       <c r="M1" s="3" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>46</v>
@@ -2009,28 +2019,31 @@
       <c r="M2" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
@@ -2039,10 +2052,10 @@
         <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>46</v>
@@ -2050,40 +2063,43 @@
       <c r="M3" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>46</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>46</v>
@@ -2091,28 +2107,31 @@
       <c r="M4" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>46</v>
@@ -2121,10 +2140,10 @@
         <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>46</v>
@@ -2132,28 +2151,31 @@
       <c r="M5" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>46</v>
@@ -2162,16 +2184,19 @@
         <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>46</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Enemies" sheetId="5" r:id="rId4"/>
     <sheet name="Items" sheetId="3" r:id="rId5"/>
     <sheet name="Skills" sheetId="4" r:id="rId6"/>
+    <sheet name="LevelExp" sheetId="7" r:id="rId7"/>
+    <sheet name="ConstantData" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
   <si>
     <t>SheetName</t>
   </si>
@@ -57,6 +59,18 @@
     <t>2</t>
   </si>
   <si>
+    <t>LevelExp</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>ConstantData</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -361,6 +375,84 @@
   </si>
   <si>
     <t>Book/W_Book07</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Exp</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>350</t>
+  </si>
+  <si>
+    <t>800</t>
+  </si>
+  <si>
+    <t>1200</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>2500</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>2900</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>4100</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>6000</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>MAX_RECORD_COUNT</t>
   </si>
 </sst>
 </file>
@@ -368,9 +460,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -495,6 +587,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -518,13 +617,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -547,187 +639,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -815,6 +907,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -844,15 +945,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -861,10 +953,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -873,16 +965,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -894,10 +986,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -918,88 +1010,88 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1379,15 +1471,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="6" customWidth="1"/>
+    <col min="1" max="1" width="14.75" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
     <col min="3" max="22" width="9" style="7"/>
   </cols>
@@ -1438,6 +1530,22 @@
       </c>
       <c r="B6" s="6" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1467,13 +1575,13 @@
   <sheetData>
     <row r="1" ht="43" customHeight="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -1481,44 +1589,44 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1548,28 +1656,28 @@
   <sheetData>
     <row r="1" s="4" customFormat="1" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I1" s="5"/>
       <c r="J1" s="5"/>
@@ -1598,25 +1706,25 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
@@ -1624,25 +1732,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
@@ -1659,7 +1767,7 @@
   <sheetPr/>
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1677,28 +1785,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -1706,106 +1814,106 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1835,70 +1943,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1937,266 +2045,453 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K2" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K4" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G5" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E6" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="36" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="46.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="48.75" style="1" customWidth="1"/>
+    <col min="3" max="13" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="7"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,15 @@
     <sheet name="Skills" sheetId="4" r:id="rId6"/>
     <sheet name="LevelExp" sheetId="7" r:id="rId7"/>
     <sheet name="ConstantData" sheetId="8" r:id="rId8"/>
+    <sheet name="HeroUnLockSkills" sheetId="9" r:id="rId9"/>
+    <sheet name="EnemyUnLockSkills" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
   <si>
     <t>SheetName</t>
   </si>
@@ -71,6 +73,18 @@
     <t>7</t>
   </si>
   <si>
+    <t>HeroUnLockSkills</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>EnemyUnLockSkills</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -89,9 +103,6 @@
     <t>Warrior</t>
   </si>
   <si>
-    <t>10001,10002</t>
-  </si>
-  <si>
     <t>hero_0002</t>
   </si>
   <si>
@@ -101,18 +112,12 @@
     <t>Wizard</t>
   </si>
   <si>
-    <t>20001,30001</t>
-  </si>
-  <si>
     <t>hero_0003</t>
   </si>
   <si>
     <t>三柱</t>
   </si>
   <si>
-    <t>10002,30002</t>
-  </si>
-  <si>
     <t>Type</t>
   </si>
   <si>
@@ -134,6 +139,18 @@
     <t>Defence</t>
   </si>
   <si>
+    <t>HPGrowthRate</t>
+  </si>
+  <si>
+    <t>MPGrowthRate</t>
+  </si>
+  <si>
+    <t>AtkGrowthRate</t>
+  </si>
+  <si>
+    <t>DefGrowthRate</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -146,6 +163,15 @@
     <t>S_Death01</t>
   </si>
   <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
     <t>150</t>
   </si>
   <si>
@@ -332,6 +358,51 @@
     <t>Skill/S_Physic02</t>
   </si>
   <si>
+    <t>10003</t>
+  </si>
+  <si>
+    <t>物理技能3</t>
+  </si>
+  <si>
+    <t>Bow/S_Bow08</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>10004</t>
+  </si>
+  <si>
+    <t>物理技能4</t>
+  </si>
+  <si>
+    <t>Bow/S_Bow09</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>物理技能5</t>
+  </si>
+  <si>
+    <t>Bow/S_Bow10</t>
+  </si>
+  <si>
+    <t>10006</t>
+  </si>
+  <si>
+    <t>物理技能6</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Bow/S_Bow11</t>
+  </si>
+  <si>
     <t>20001</t>
   </si>
   <si>
@@ -347,10 +418,61 @@
     <t>True</t>
   </si>
   <si>
-    <t>Skill/S_Magic01</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>Fire/S_Fire03</t>
+  </si>
+  <si>
+    <t>20002</t>
+  </si>
+  <si>
+    <t>魔法技能1</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Ice/S_Ice01</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>20003</t>
+  </si>
+  <si>
+    <t>魔法技能2</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>Thunder/S_Thunder02</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>20004</t>
+  </si>
+  <si>
+    <t>魔法技能3</t>
+  </si>
+  <si>
+    <t>Ice/S_Ice02</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>大火球</t>
+  </si>
+  <si>
+    <t>Fire/S_Fire05</t>
+  </si>
+  <si>
+    <t>4.3</t>
   </si>
   <si>
     <t>30001</t>
@@ -362,9 +484,6 @@
     <t>25</t>
   </si>
   <si>
-    <t>Ice</t>
-  </si>
-  <si>
     <t>Book/W_Book06</t>
   </si>
   <si>
@@ -377,15 +496,42 @@
     <t>Book/W_Book07</t>
   </si>
   <si>
+    <t>30003</t>
+  </si>
+  <si>
+    <t>Real</t>
+  </si>
+  <si>
+    <t>固定伤害技能3</t>
+  </si>
+  <si>
+    <t>Ice/S_Ice04</t>
+  </si>
+  <si>
+    <t>30004</t>
+  </si>
+  <si>
+    <t>固定伤害技能4</t>
+  </si>
+  <si>
+    <t>Book/W_Book04</t>
+  </si>
+  <si>
+    <t>30005</t>
+  </si>
+  <si>
+    <t>固定伤害技能5</t>
+  </si>
+  <si>
+    <t>Book/W_Book03</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
     <t>Exp</t>
   </si>
   <si>
-    <t>100</t>
-  </si>
-  <si>
     <t>230</t>
   </si>
   <si>
@@ -398,15 +544,9 @@
     <t>1200</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>1450</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
     <t>1800</t>
   </si>
   <si>
@@ -453,6 +593,39 @@
   </si>
   <si>
     <t>MAX_RECORD_COUNT</t>
+  </si>
+  <si>
+    <t>MAX_LEVEL</t>
+  </si>
+  <si>
+    <t>HeroJobType</t>
+  </si>
+  <si>
+    <t>10002,30001</t>
+  </si>
+  <si>
+    <t>10003,30002</t>
+  </si>
+  <si>
+    <t>10004,30003,30004</t>
+  </si>
+  <si>
+    <t>10005,30005</t>
+  </si>
+  <si>
+    <t>20002,30001</t>
+  </si>
+  <si>
+    <t>20003,30003</t>
+  </si>
+  <si>
+    <t>20004,30004</t>
+  </si>
+  <si>
+    <t>20005,30005</t>
+  </si>
+  <si>
+    <t>EnemyType</t>
   </si>
 </sst>
 </file>
@@ -475,7 +648,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,59 +670,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -566,6 +695,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -580,23 +746,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -610,9 +762,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -639,7 +812,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -651,7 +842,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,25 +854,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,7 +890,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,19 +932,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -741,85 +992,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,15 +1021,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -872,17 +1036,50 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -907,41 +1104,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -953,10 +1126,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -965,133 +1138,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1471,15 +1644,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.75" style="6" customWidth="1"/>
+    <col min="1" max="1" width="27.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
     <col min="3" max="22" width="9" style="7"/>
   </cols>
@@ -1548,6 +1721,22 @@
         <v>15</v>
       </c>
     </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1555,78 +1744,103 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="1" customWidth="1"/>
+    <col min="5" max="24" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
     <col min="3" max="3" width="13.15" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.15" style="1" customWidth="1"/>
-    <col min="5" max="27" width="9" style="2"/>
+    <col min="4" max="26" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43" customHeight="1" spans="1:4">
+    <row r="1" ht="43" customHeight="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1639,10 +1853,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AF3"/>
+  <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1651,38 +1865,49 @@
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
-    <col min="9" max="32" width="9" style="2"/>
+    <col min="9" max="9" width="13.25" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" customWidth="1"/>
+    <col min="11" max="12" width="16.625" style="1" customWidth="1"/>
+    <col min="13" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:32">
+    <row r="1" s="4" customFormat="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
+        <v>37</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
       <c r="M1" s="5"/>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
@@ -1702,58 +1927,81 @@
       <c r="AC1" s="5"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
-      <c r="AF1" s="5"/>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1785,28 +2033,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>6</v>
@@ -1814,106 +2062,106 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1943,70 +2191,70 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2019,13 +2267,13 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N6"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
     <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
@@ -2033,7 +2281,7 @@
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="17.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
     <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
@@ -2045,266 +2293,750 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="3" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>93</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="A13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="A14" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>107</v>
+      <c r="C14" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="A15" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="A16" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2319,7 +3051,7 @@
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2330,10 +3062,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>118</v>
+        <v>167</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>119</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2341,7 +3073,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2349,7 +3081,7 @@
         <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2357,7 +3089,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>121</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2365,7 +3097,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2373,7 +3105,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>123</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2381,7 +3113,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2389,71 +3121,71 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>124</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>126</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>128</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>130</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>131</v>
+        <v>177</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>179</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>135</v>
+        <v>181</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>136</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>138</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>139</v>
+        <v>185</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>140</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2465,13 +3197,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="46.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.75" style="1" customWidth="1"/>
@@ -2480,18 +3212,204 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>141</v>
+        <v>187</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>142</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>189</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>129</v>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="25" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
   <si>
     <t>SheetName</t>
   </si>
@@ -121,10 +121,10 @@
     <t>Type</t>
   </si>
   <si>
-    <t>OriginHp</t>
-  </si>
-  <si>
-    <t>OriginMp</t>
+    <t>InitHp</t>
+  </si>
+  <si>
+    <t>InitMp</t>
   </si>
   <si>
     <t>HeadImageKey</t>
@@ -133,10 +133,10 @@
     <t>DeathImageKey</t>
   </si>
   <si>
-    <t>Attack</t>
-  </si>
-  <si>
-    <t>Defence</t>
+    <t>InitAtk</t>
+  </si>
+  <si>
+    <t>InitDef</t>
   </si>
   <si>
     <t>HPGrowthRate</t>
@@ -184,7 +184,10 @@
     <t>130</t>
   </si>
   <si>
-    <t>DropExp</t>
+    <t>InitDropExp</t>
+  </si>
+  <si>
+    <t>DropExpGrowthRate</t>
   </si>
   <si>
     <t>enemy_0001</t>
@@ -205,6 +208,15 @@
     <t>30</t>
   </si>
   <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
     <t>enemy_0002</t>
   </si>
   <si>
@@ -220,6 +232,12 @@
     <t>40</t>
   </si>
   <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
     <t>enemy_0003</t>
   </si>
   <si>
@@ -235,6 +253,12 @@
     <t>50</t>
   </si>
   <si>
+    <t>1.3</t>
+  </si>
+  <si>
+    <t>0.4</t>
+  </si>
+  <si>
     <t>enemy_0004</t>
   </si>
   <si>
@@ -335,9 +359,6 @@
   </si>
   <si>
     <t>Skill/S_Physic01</t>
-  </si>
-  <si>
-    <t>1.3</t>
   </si>
   <si>
     <t>Direct</t>
@@ -633,10 +654,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -648,38 +669,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -687,23 +677,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,6 +685,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -730,47 +711,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -785,7 +728,85 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -812,24 +833,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -849,6 +852,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -903,6 +912,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1036,20 +1057,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1065,6 +1083,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1086,6 +1113,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1094,30 +1139,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1126,10 +1147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1138,137 +1159,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1276,6 +1297,12 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1652,88 +1679,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
-    <col min="3" max="22" width="9" style="7"/>
+    <col min="1" max="1" width="27.375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="8" customWidth="1"/>
+    <col min="3" max="22" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="8" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="8" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1767,10 +1794,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -1788,7 +1815,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1799,7 +1826,7 @@
     <col min="4" max="26" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43" customHeight="1" spans="1:3">
+    <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1883,7 @@
   <dimension ref="A1:AE3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="I1" sqref="I1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
@@ -1871,7 +1898,7 @@
     <col min="13" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:31">
+    <row r="1" s="6" customFormat="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1908,25 +1935,25 @@
       <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
+      <c r="AB1" s="7"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="7"/>
+      <c r="AE1" s="7"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2013,10 +2040,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
@@ -2026,12 +2053,17 @@
     <col min="3" max="3" width="19" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
-    <col min="6" max="8" width="9" style="1"/>
-    <col min="9" max="9" width="16.625" style="3" customWidth="1"/>
-    <col min="10" max="25" width="9" style="2"/>
+    <col min="6" max="7" width="9" style="1"/>
+    <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="4" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="4" customWidth="1"/>
+    <col min="14" max="24" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>20</v>
       </c>
@@ -2057,111 +2089,183 @@
         <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>38</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>59</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>68</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>75</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -2200,61 +2304,61 @@
         <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2269,7 +2373,7 @@
   <sheetPr/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -2296,747 +2400,747 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>104</v>
+        <v>76</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="L4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>43</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -3062,10 +3166,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -3073,7 +3177,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -3089,7 +3193,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -3097,7 +3201,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -3105,7 +3209,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3113,7 +3217,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3121,7 +3225,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3129,7 +3233,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3137,55 +3241,55 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3212,26 +3316,26 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -3263,10 +3367,10 @@
         <v>20</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>6</v>
@@ -3274,7 +3378,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>25</v>
@@ -3283,12 +3387,12 @@
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>25</v>
@@ -3297,12 +3401,12 @@
         <v>7</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>25</v>
@@ -3311,40 +3415,40 @@
         <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>28</v>
@@ -3353,12 +3457,12 @@
         <v>3</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -3367,12 +3471,12 @@
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
@@ -3381,35 +3485,35 @@
         <v>15</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="3"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -448,7 +448,7 @@
     <t>魔法技能1</t>
   </si>
   <si>
-    <t>Ice</t>
+    <t>IceExplosion</t>
   </si>
   <si>
     <t>Ice/S_Ice01</t>
@@ -654,15 +654,38 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -675,23 +698,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -711,48 +736,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -768,23 +754,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,7 +806,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -839,25 +839,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -869,7 +869,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -881,19 +881,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,19 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -935,13 +953,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,19 +977,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -983,37 +1013,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,36 +1038,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,20 +1081,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1139,6 +1106,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1147,10 +1147,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,19 +1159,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1180,116 +1180,116 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,12 +1297,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1679,88 +1673,88 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="8" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="8" customWidth="1"/>
-    <col min="3" max="22" width="9" style="9"/>
+    <col min="1" max="1" width="27.375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
+    <col min="3" max="22" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1898,7 +1892,7 @@
     <col min="13" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="6" customFormat="1" spans="1:31">
+    <row r="1" s="4" customFormat="1" spans="1:31">
       <c r="A1" s="3" t="s">
         <v>31</v>
       </c>
@@ -1935,25 +1929,25 @@
       <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
@@ -2042,7 +2036,7 @@
   <sheetPr/>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
@@ -2055,11 +2049,11 @@
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
     <col min="8" max="8" width="12.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="16.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.75" style="4" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="4" customWidth="1"/>
-    <col min="12" max="12" width="13.75" style="4" customWidth="1"/>
-    <col min="13" max="13" width="18.125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="16.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14.75" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
+    <col min="12" max="12" width="13.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.125" style="1" customWidth="1"/>
     <col min="14" max="24" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2100,7 +2094,7 @@
       <c r="L1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="M1" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2129,19 +2123,19 @@
       <c r="H2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="1" t="s">
         <v>63</v>
       </c>
     </row>
@@ -2170,19 +2164,19 @@
       <c r="H3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="1" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2211,19 +2205,19 @@
       <c r="H4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2252,19 +2246,19 @@
       <c r="H5" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2373,8 +2367,8 @@
   <sheetPr/>
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="ConstantData" sheetId="8" r:id="rId8"/>
     <sheet name="HeroUnLockSkills" sheetId="9" r:id="rId9"/>
     <sheet name="EnemyUnLockSkills" sheetId="10" r:id="rId10"/>
+    <sheet name="Buff" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
   <si>
     <t>SheetName</t>
   </si>
@@ -31,12 +32,30 @@
     <t>SheetIndex</t>
   </si>
   <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
     <t>Heroes</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
+    <t>HeroJobs</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Enemies</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>Items</t>
   </si>
   <si>
@@ -49,18 +68,6 @@
     <t>5</t>
   </si>
   <si>
-    <t>Enemies</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>HeroJobs</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>LevelExp</t>
   </si>
   <si>
@@ -85,6 +92,12 @@
     <t>9</t>
   </si>
   <si>
+    <t>Buff</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -94,6 +107,9 @@
     <t>Job</t>
   </si>
   <si>
+    <t>Warrior,Wizard</t>
+  </si>
+  <si>
     <t>hero_0001</t>
   </si>
   <si>
@@ -151,6 +167,9 @@
     <t>DefGrowthRate</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>200</t>
   </si>
   <si>
@@ -190,6 +209,9 @@
     <t>DropExpGrowthRate</t>
   </si>
   <si>
+    <t>Snake,Pig,DarkPig,Bat</t>
+  </si>
+  <si>
     <t>enemy_0001</t>
   </si>
   <si>
@@ -277,6 +299,9 @@
     <t>IconKey</t>
   </si>
   <si>
+    <t>None,RedPotion,BluePotion,Other</t>
+  </si>
+  <si>
     <t>10000</t>
   </si>
   <si>
@@ -343,6 +368,27 @@
     <t>IsConstant</t>
   </si>
   <si>
+    <t>BuffIds</t>
+  </si>
+  <si>
+    <t>Physical,Magic,Real,Mp</t>
+  </si>
+  <si>
+    <t>FireBall,GeneralHit,IceExplosion,MagicAura</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>Direct,EffectOverTime</t>
+  </si>
+  <si>
+    <t>Reduce,Restore</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
     <t>Physical</t>
   </si>
   <si>
@@ -496,6 +542,24 @@
     <t>4.3</t>
   </si>
   <si>
+    <t>20006</t>
+  </si>
+  <si>
+    <t>诅咒技能1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>MagicAura</t>
+  </si>
+  <si>
+    <t>Medal/Ac_Medal04</t>
+  </si>
+  <si>
+    <t>EffectOverTime</t>
+  </si>
+  <si>
     <t>30001</t>
   </si>
   <si>
@@ -571,9 +635,6 @@
     <t>1800</t>
   </si>
   <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>2500</t>
   </si>
   <si>
@@ -601,9 +662,6 @@
     <t>4800</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>6000</t>
   </si>
   <si>
@@ -622,6 +680,9 @@
     <t>HeroJobType</t>
   </si>
   <si>
+    <t>List&lt;int&gt;</t>
+  </si>
+  <si>
     <t>10002,30001</t>
   </si>
   <si>
@@ -634,6 +695,9 @@
     <t>10005,30005</t>
   </si>
   <si>
+    <t>20001,20006</t>
+  </si>
+  <si>
     <t>20002,30001</t>
   </si>
   <si>
@@ -647,6 +711,36 @@
   </si>
   <si>
     <t>EnemyType</t>
+  </si>
+  <si>
+    <t>SType</t>
+  </si>
+  <si>
+    <t>NoValueChange,HpChange,MpChange,HpMpChange</t>
+  </si>
+  <si>
+    <t>None,Blind</t>
+  </si>
+  <si>
+    <t>NoValueChange</t>
+  </si>
+  <si>
+    <t>Blind</t>
+  </si>
+  <si>
+    <t>HpChange</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>MpChange</t>
+  </si>
+  <si>
+    <t>40001</t>
+  </si>
+  <si>
+    <t>HpMpChange</t>
   </si>
 </sst>
 </file>
@@ -656,8 +750,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -677,22 +771,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -729,6 +808,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -736,19 +838,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -777,28 +884,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,13 +892,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="35">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -827,13 +921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,6 +975,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -863,67 +999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -947,6 +1023,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -959,7 +1053,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -977,43 +1095,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,6 +1142,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1062,6 +1177,35 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,50 +1239,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1147,149 +1247,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1302,12 +1402,15 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1315,6 +1418,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,97 +1771,113 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="27.375" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.75" style="6" customWidth="1"/>
-    <col min="3" max="22" width="9" style="7"/>
+    <col min="1" max="1" width="27.375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="11.75" style="7" customWidth="1"/>
+    <col min="3" max="22" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1768,13 +1890,13 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
@@ -1785,16 +1907,138 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>218</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="45.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="1" customWidth="1"/>
+    <col min="5" max="25" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1806,62 +2050,73 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="10.5333333333333" style="1" customWidth="1"/>
     <col min="2" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="13.15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.4583333333333" style="1" customWidth="1"/>
     <col min="4" max="26" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>25</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1874,15 +2129,16 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L1"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
+    <col min="1" max="1" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="4" width="9" style="1"/>
     <col min="5" max="5" width="12.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
     <col min="7" max="8" width="9" style="1"/>
@@ -1892,137 +2148,175 @@
     <col min="13" max="31" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" spans="1:31">
+    <row r="1" s="5" customFormat="1" spans="1:31">
       <c r="A1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5"/>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5"/>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
-      <c r="AD1" s="5"/>
-      <c r="AE1" s="5"/>
+        <v>46</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="L2" s="1" t="s">
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="G3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
+      <c r="I4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2034,17 +2328,17 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.25" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
     <col min="6" max="7" width="9" style="1"/>
@@ -2059,125 +2353,125 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>63</v>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2194,13 +2488,13 @@
         <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>75</v>
@@ -2212,13 +2506,13 @@
         <v>76</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -2235,31 +2529,72 @@
         <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>77</v>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -2271,16 +2606,16 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1"/>
@@ -2289,70 +2624,87 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>87</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2365,776 +2717,874 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="21.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="1" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="18.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="9" style="1"/>
     <col min="7" max="7" width="22.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="14.125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="18.75" style="1" customWidth="1"/>
-    <col min="11" max="11" width="18.625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" style="1" customWidth="1"/>
     <col min="13" max="14" width="10.625" style="1" customWidth="1"/>
-    <col min="15" max="34" width="9" style="2"/>
+    <col min="15" max="15" width="12.625" style="1" customWidth="1"/>
+    <col min="16" max="33" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K2" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>110</v>
+      <c r="O1" s="3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" ht="27" spans="1:15">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>60</v>
+        <v>131</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>121</v>
+        <v>7</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="H5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>113</v>
-      </c>
       <c r="L6" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>131</v>
+        <v>49</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>143</v>
+        <v>7</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>146</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M10" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>136</v>
+        <v>156</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M12" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>159</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>59</v>
+        <v>171</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>106</v>
+        <v>149</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>109</v>
+        <v>175</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>163</v>
+        <v>176</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>146</v>
+        <v>180</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>49</v>
+        <v>82</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>161</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>137</v>
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3146,10 +3596,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3160,50 +3610,50 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>131</v>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>49</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>176</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -3211,7 +3661,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>116</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -3219,7 +3669,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -3227,7 +3677,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -3235,55 +3685,63 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>182</v>
+        <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>184</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>193</v>
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3295,13 +3753,13 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="46.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.75" style="1" customWidth="1"/>
@@ -3310,26 +3768,34 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>182</v>
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>192</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3341,10 +3807,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3358,156 +3824,170 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>88</v>
+      <c r="D2" s="4" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>174</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>133</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>226</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,28 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="5"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
-    <sheet name="Heroes" sheetId="2" r:id="rId2"/>
-    <sheet name="HeroJobs" sheetId="6" r:id="rId3"/>
-    <sheet name="Enemies" sheetId="5" r:id="rId4"/>
-    <sheet name="Items" sheetId="3" r:id="rId5"/>
-    <sheet name="Skills" sheetId="4" r:id="rId6"/>
-    <sheet name="Buffs" sheetId="11" r:id="rId7"/>
-    <sheet name="EffectDatas" sheetId="13" r:id="rId8"/>
-    <sheet name="LevelExp" sheetId="7" r:id="rId9"/>
-    <sheet name="ConstantData" sheetId="8" r:id="rId10"/>
-    <sheet name="HeroUnLockSkills" sheetId="9" r:id="rId11"/>
-    <sheet name="EnemyUnLockSkills" sheetId="10" r:id="rId12"/>
+    <sheet name="ConstantData" sheetId="8" r:id="rId2"/>
+    <sheet name="Heroes" sheetId="2" r:id="rId3"/>
+    <sheet name="HeroJobs" sheetId="6" r:id="rId4"/>
+    <sheet name="Enemies" sheetId="5" r:id="rId5"/>
+    <sheet name="Items" sheetId="3" r:id="rId6"/>
+    <sheet name="Skills" sheetId="4" r:id="rId7"/>
+    <sheet name="Buffs" sheetId="11" r:id="rId8"/>
+    <sheet name="EffectDatas" sheetId="13" r:id="rId9"/>
+    <sheet name="SkillEffects" sheetId="14" r:id="rId10"/>
+    <sheet name="LevelExp" sheetId="7" r:id="rId11"/>
+    <sheet name="HeroUnLockSkills" sheetId="9" r:id="rId12"/>
+    <sheet name="EnemyUnLockSkills" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
   <si>
     <t>SheetName</t>
   </si>
@@ -39,70 +40,91 @@
     <t>int</t>
   </si>
   <si>
+    <t>ConstantData</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Heroes</t>
   </si>
   <si>
-    <t>1</t>
+    <t>2</t>
   </si>
   <si>
     <t>HeroJobs</t>
   </si>
   <si>
-    <t>2</t>
+    <t>3</t>
   </si>
   <si>
     <t>Enemies</t>
   </si>
   <si>
-    <t>3</t>
+    <t>4</t>
   </si>
   <si>
     <t>Items</t>
   </si>
   <si>
-    <t>4</t>
+    <t>5</t>
   </si>
   <si>
     <t>Skills</t>
   </si>
   <si>
-    <t>5</t>
+    <t>6</t>
   </si>
   <si>
     <t>Buffs</t>
   </si>
   <si>
-    <t>6</t>
+    <t>7</t>
   </si>
   <si>
     <t>EffectDatas</t>
   </si>
   <si>
-    <t>7</t>
+    <t>8</t>
+  </si>
+  <si>
+    <t>SkillEffects</t>
+  </si>
+  <si>
+    <t>9</t>
   </si>
   <si>
     <t>LevelExp</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>ConstantData</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>10</t>
   </si>
   <si>
     <t>HeroUnLockSkills</t>
   </si>
   <si>
-    <t>10</t>
+    <t>11</t>
   </si>
   <si>
     <t>EnemyUnLockSkills</t>
   </si>
   <si>
-    <t>11</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>MAX_RECORD_COUNT</t>
+  </si>
+  <si>
+    <t>MAX_LEVEL</t>
+  </si>
+  <si>
+    <t>15</t>
   </si>
   <si>
     <t>ID</t>
@@ -252,9 +274,6 @@
     <t>30</t>
   </si>
   <si>
-    <t>15</t>
-  </si>
-  <si>
     <t>20</t>
   </si>
   <si>
@@ -342,7 +361,7 @@
     <t>P_Blue03</t>
   </si>
   <si>
-    <t>Variety</t>
+    <t>Effects</t>
   </si>
   <si>
     <t>MpCost</t>
@@ -390,22 +409,16 @@
     <t>UseToOppositeSideBuffIds</t>
   </si>
   <si>
-    <t>GeneralHit,
-FireBall,
-IceExplosion,
-MagicAura</t>
+    <t>List&lt;string&gt;</t>
   </si>
   <si>
     <t>bool</t>
   </si>
   <si>
-    <t>List&lt;string&gt;</t>
-  </si>
-  <si>
     <t>物理技能1</t>
   </si>
   <si>
-    <t>GeneralHit</t>
+    <t>10003</t>
   </si>
   <si>
     <t>False</t>
@@ -441,9 +454,6 @@
     <t>-200</t>
   </si>
   <si>
-    <t>10003</t>
-  </si>
-  <si>
     <t>物理技能3</t>
   </si>
   <si>
@@ -507,7 +517,7 @@
     <t>火球</t>
   </si>
   <si>
-    <t>FireBall</t>
+    <t>10001,10002</t>
   </si>
   <si>
     <t>True</t>
@@ -534,9 +544,6 @@
     <t>魔法技能1</t>
   </si>
   <si>
-    <t>IceExplosion</t>
-  </si>
-  <si>
     <t>Ice/S_Ice01</t>
   </si>
   <si>
@@ -595,9 +602,6 @@
   </si>
   <si>
     <t>诅咒技能1</t>
-  </si>
-  <si>
-    <t>MagicAura</t>
   </si>
   <si>
     <t>Medal/Ac_Medal04</t>
@@ -715,16 +719,26 @@
 Comatose,
 Burning,
 Poisoned,
-Tearing</t>
+Tearing,
+Cursed</t>
   </si>
   <si>
     <t>痛苦诅咒</t>
   </si>
   <si>
+    <t>Cursed</t>
+  </si>
+  <si>
     <t>愈合</t>
   </si>
   <si>
+    <t>Hot</t>
+  </si>
+  <si>
     <t>英勇祝福</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
   <si>
     <t>040003</t>
@@ -821,9 +835,6 @@
     <t>MaxHp</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>最大生命值增加或减少x点</t>
   </si>
   <si>
@@ -941,6 +952,40 @@
     <t>魔法防御增加或减少x%</t>
   </si>
   <si>
+    <t>PrefabKey</t>
+  </si>
+  <si>
+    <t>IsOverTime</t>
+  </si>
+  <si>
+    <t>Ballistic</t>
+  </si>
+  <si>
+    <t>FireBall,
+FireBallExplosion,
+GeneralHit,
+IceExplosion,
+MagicAura</t>
+  </si>
+  <si>
+    <t>FireBall</t>
+  </si>
+  <si>
+    <t>FireBallExplosion</t>
+  </si>
+  <si>
+    <t>GeneralHit</t>
+  </si>
+  <si>
+    <t>Hit</t>
+  </si>
+  <si>
+    <t>IceExplosion</t>
+  </si>
+  <si>
+    <t>MagicAura</t>
+  </si>
+  <si>
     <t>Level</t>
   </si>
   <si>
@@ -971,9 +1016,6 @@
     <t>2900</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
     <t>3500</t>
   </si>
   <si>
@@ -992,22 +1034,7 @@
     <t>6000</t>
   </si>
   <si>
-    <t>Field</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>MAX_RECORD_COUNT</t>
-  </si>
-  <si>
-    <t>MAX_LEVEL</t>
-  </si>
-  <si>
     <t>HeroJobType</t>
-  </si>
-  <si>
-    <t>List&lt;int&gt;</t>
   </si>
   <si>
     <t>10002,30001</t>
@@ -1045,9 +1072,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -1059,74 +1086,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1135,54 +1094,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,6 +1113,120 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1230,31 +1257,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1272,79 +1299,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1368,7 +1329,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1380,25 +1359,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1439,30 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1474,6 +1477,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1513,17 +1540,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1531,8 +1558,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1544,10 +1571,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1556,7 +1583,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1565,124 +1592,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1705,13 +1732,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2083,10 +2110,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -2097,18 +2124,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2198,6 +2225,14 @@
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2208,6 +2243,550 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="10.125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="20.375" style="5" customWidth="1"/>
+    <col min="3" max="3" width="23.25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="10.625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="11.875" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="2" ht="67.5" spans="1:5">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="5">
+        <v>10001</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="5">
+        <v>10002</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="5">
+        <v>10003</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="5">
+        <v>10005</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="36" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
+    <col min="5" max="25" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.625" style="1" customWidth="1"/>
+    <col min="5" max="24" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B4"/>
@@ -2225,10 +2804,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>314</v>
+        <v>28</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>315</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2241,7 +2820,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>316</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>23</v>
@@ -2249,10 +2828,10 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -2261,251 +2840,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="13" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.75" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.75" style="1" customWidth="1"/>
-    <col min="5" max="25" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="12.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.625" style="1" customWidth="1"/>
-    <col min="5" max="24" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:C5"/>
@@ -2524,13 +2859,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2541,40 +2876,40 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -2584,7 +2919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AF4"/>
@@ -2615,52 +2950,52 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -2681,7 +3016,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -2690,37 +3025,37 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>2</v>
@@ -2731,28 +3066,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -2764,7 +3099,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>11</v>
@@ -2773,30 +3108,30 @@
         <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
@@ -2805,10 +3140,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
@@ -2820,13 +3155,13 @@
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2835,7 +3170,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q6"/>
@@ -2868,55 +3203,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2927,134 +3262,134 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -3072,42 +3407,42 @@
         <v>23</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>23</v>
@@ -3125,63 +3460,63 @@
         <v>23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E5"/>
@@ -3211,19 +3546,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3231,7 +3566,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
@@ -3245,53 +3580,53 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3301,13 +3636,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AI19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3335,58 +3670,58 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="27" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -3406,7 +3741,7 @@
       <c r="AH1" s="11"/>
       <c r="AI1" s="11"/>
     </row>
-    <row r="2" s="10" customFormat="1" ht="54" spans="1:35">
+    <row r="2" s="10" customFormat="1" spans="1:35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -3414,19 +3749,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
@@ -3435,31 +3770,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -3481,849 +3816,705 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="F4" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N4" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>129</v>
-      </c>
       <c r="O4" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="O10" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N11" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N11" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="O11" s="1" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>75</v>
+        <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="N15" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="O15" s="1" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="3" width="16.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.875" style="1" customWidth="1"/>
-    <col min="7" max="9" width="13.875" style="1" customWidth="1"/>
-    <col min="10" max="27" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="2" ht="108" spans="1:9">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>226</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -4335,10 +4526,172 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="16.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="17.75" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.875" style="1" customWidth="1"/>
+    <col min="8" max="10" width="13.875" style="1" customWidth="1"/>
+    <col min="11" max="28" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" ht="121.5" spans="1:10">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="A1" sqref="A1:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4348,24 +4701,24 @@
     <col min="3" max="3" width="21.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="19.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="40.875" style="5" customWidth="1"/>
-    <col min="6" max="16" width="9" style="6"/>
+    <col min="6" max="16" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>110</v>
+        <v>238</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:5">
@@ -4373,615 +4726,458 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>238</v>
-      </c>
       <c r="D5" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E7" s="5" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="E8" s="5" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="E17" s="5" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>296</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="36" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Data/GameData.xlsx
+++ b/Assets/Data/GameData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="3" activeTab="6"/>
+    <workbookView windowWidth="28800" windowHeight="12465" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DataTypes" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352">
   <si>
     <t>SheetName</t>
   </si>
@@ -127,6 +127,12 @@
     <t>15</t>
   </si>
   <si>
+    <t>BACKPACK_MAX_SIZE</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -220,9 +226,6 @@
     <t>80</t>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>40</t>
   </si>
   <si>
@@ -319,27 +322,68 @@
     <t>100</t>
   </si>
   <si>
-    <t>EffectValue</t>
+    <t>TargetType</t>
   </si>
   <si>
     <t>IconKey</t>
   </si>
   <si>
-    <t>None,RedPotion,BluePotion,Other</t>
+    <t>Desc</t>
+  </si>
+  <si>
+    <t>MaxCount</t>
+  </si>
+  <si>
+    <t>UseToDataId</t>
+  </si>
+  <si>
+    <t>UseToDataValue</t>
+  </si>
+  <si>
+    <t>UseToBuffIds</t>
+  </si>
+  <si>
+    <t>None,
+RedPotion,
+BluePotion,
+Other</t>
+  </si>
+  <si>
+    <t>Self,
+Opposite,
+Both</t>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
   </si>
   <si>
     <t>10000</t>
   </si>
   <si>
+    <t>红药水</t>
+  </si>
+  <si>
     <t>RedPotion</t>
   </si>
   <si>
-    <t>红药水</t>
+    <t>Self</t>
   </si>
   <si>
     <t>P_Red03</t>
   </si>
   <si>
+    <t>恢复50点生命值</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>010002</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
     <t>10001</t>
   </si>
   <si>
@@ -349,18 +393,27 @@
     <t>P_Red01</t>
   </si>
   <si>
+    <t>恢复200点生命值</t>
+  </si>
+  <si>
     <t>20000</t>
   </si>
   <si>
+    <t>蓝药水</t>
+  </si>
+  <si>
     <t>BluePotion</t>
   </si>
   <si>
-    <t>蓝药水</t>
-  </si>
-  <si>
     <t>P_Blue03</t>
   </si>
   <si>
+    <t>恢复50点蓝量</t>
+  </si>
+  <si>
+    <t>030002</t>
+  </si>
+  <si>
     <t>Effects</t>
   </si>
   <si>
@@ -376,9 +429,6 @@
     <t>MoveSpeed</t>
   </si>
   <si>
-    <t>Desc</t>
-  </si>
-  <si>
     <t>UseToSelfSideDataId0</t>
   </si>
   <si>
@@ -409,9 +459,6 @@
     <t>UseToOppositeSideBuffIds</t>
   </si>
   <si>
-    <t>List&lt;string&gt;</t>
-  </si>
-  <si>
     <t>bool</t>
   </si>
   <si>
@@ -524,9 +571,6 @@
   </si>
   <si>
     <t>Fire/S_Fire03</t>
-  </si>
-  <si>
-    <t>5000</t>
   </si>
   <si>
     <t>对敌方造成 魔力x1.6 点魔法伤害</t>
@@ -827,6 +871,9 @@
   </si>
   <si>
     <t>生命值增加或减少x%</t>
+  </si>
+  <si>
+    <t>生命值增加或减少x点</t>
   </si>
   <si>
     <t>020002</t>
@@ -1086,9 +1133,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1101,8 +1170,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1116,44 +1232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1161,30 +1241,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1198,35 +1263,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1257,7 +1304,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,43 +1394,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1341,43 +1424,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,7 +1436,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1401,19 +1448,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1431,13 +1478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,6 +1513,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1481,11 +1548,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1501,6 +1574,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1522,44 +1604,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1571,10 +1618,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1583,133 +1630,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2262,19 +2309,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" ht="67.5" spans="1:5">
@@ -2282,16 +2329,16 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2299,16 +2346,16 @@
         <v>10001</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2316,16 +2363,16 @@
         <v>10002</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2333,33 +2380,33 @@
         <v>10003</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2367,16 +2414,16 @@
         <v>10005</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -2402,10 +2449,10 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2421,7 +2468,7 @@
         <v>5</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2429,7 +2476,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2437,7 +2484,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2445,7 +2492,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2453,7 +2500,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2461,7 +2508,7 @@
         <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2469,7 +2516,7 @@
         <v>17</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2477,7 +2524,7 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2485,7 +2532,7 @@
         <v>21</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2493,7 +2540,7 @@
         <v>23</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2501,7 +2548,7 @@
         <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2509,23 +2556,23 @@
         <v>27</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2533,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2562,13 +2609,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2579,153 +2626,153 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -2754,13 +2801,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>14</v>
@@ -2771,13 +2818,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2789,13 +2836,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="46.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.75" style="1" customWidth="1"/>
@@ -2832,6 +2879,14 @@
       </c>
       <c r="B4" s="1" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -2859,13 +2914,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -2876,40 +2931,40 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -2950,52 +3005,52 @@
   <sheetData>
     <row r="1" s="13" customFormat="1" spans="1:32">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
@@ -3016,7 +3071,7 @@
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>2</v>
@@ -3025,37 +3080,37 @@
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O2" s="4" t="s">
         <v>2</v>
@@ -3066,28 +3121,28 @@
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -3099,7 +3154,7 @@
         <v>13</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>11</v>
@@ -3108,30 +3163,30 @@
         <v>23</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>64</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>23</v>
@@ -3140,10 +3195,10 @@
         <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>9</v>
@@ -3155,13 +3210,13 @@
         <v>13</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3203,55 +3258,55 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3262,81 +3317,81 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="J2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>79</v>
-      </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>32</v>
@@ -3354,42 +3409,42 @@
         <v>32</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>23</v>
@@ -3407,42 +3462,42 @@
         <v>23</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>23</v>
@@ -3460,63 +3515,63 @@
         <v>23</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -3528,105 +3583,173 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="33.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="1"/>
-    <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="1"/>
-    <col min="6" max="36" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="15.25" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.875" style="1" customWidth="1"/>
+    <col min="7" max="8" width="13.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="1" customWidth="1"/>
+    <col min="11" max="41" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>99</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" ht="54" spans="1:10">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>3</v>
+        <v>106</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>112</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>119</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>107</v>
+        <v>121</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>109</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>64</v>
+        <v>111</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>110</v>
+        <v>124</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -3641,7 +3764,7 @@
   <sheetPr/>
   <dimension ref="A1:AI19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
@@ -3670,58 +3793,58 @@
   <sheetData>
     <row r="1" s="9" customFormat="1" ht="27" spans="1:35">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="R1" s="3" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="S1" s="11"/>
       <c r="T1" s="11"/>
@@ -3749,19 +3872,19 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>2</v>
@@ -3770,31 +3893,31 @@
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="N2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="S2" s="12"/>
       <c r="T2" s="12"/>
@@ -3816,705 +3939,705 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F6" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N6" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="O6" s="1" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>153</v>
+        <v>167</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="1" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="1" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="O10" s="1" t="s">
-        <v>150</v>
-      </c>
       <c r="Q10" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="1" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O11" s="1" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="1" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N12" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N12" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="O12" s="1" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="1" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" ht="40.5" spans="1:18">
       <c r="A14" s="1" t="s">
-        <v>190</v>
+        <v>203</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>192</v>
+        <v>205</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>193</v>
+        <v>206</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:17">
       <c r="A15" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>201</v>
+        <v>214</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="1" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>199</v>
+        <v>212</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>205</v>
+        <v>218</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>206</v>
+        <v>219</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>210</v>
+        <v>223</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="J19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="N19" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>207</v>
-      </c>
       <c r="O19" s="1" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4545,34 +4668,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" ht="121.5" spans="1:10">
@@ -4583,13 +4706,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>3</v>
@@ -4598,85 +4721,85 @@
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>230</v>
+        <v>243</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>231</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>32</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -4688,10 +4811,10 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E2"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4706,19 +4829,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" ht="108" spans="1:5">
@@ -4726,13 +4849,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>2</v>
@@ -4740,444 +4863,478 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>207</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
-        <v>260</v>
+        <v>115</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="C20" s="1" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>234</v>
+        <v>269</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>235</v>
+        <v>126</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="1" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="1" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="1" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>300</v>
+        <v>309</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
